--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -100,19 +100,19 @@
     <t>safe</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>support</t>
   </si>
   <si>
     <t>well</t>
@@ -1228,25 +1228,25 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6869565217391305</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="L16">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1254,25 +1254,25 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6829268292682927</v>
+        <v>0.68</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1280,25 +1280,25 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1306,25 +1306,25 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6739130434782609</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="M19">
+        <v>73</v>
+      </c>
+      <c r="N19">
+        <v>0.93</v>
+      </c>
+      <c r="O19">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19">
         <v>33</v>
-      </c>
-      <c r="N19">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1332,25 +1332,25 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6732673267326733</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L20">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="M20">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1436,25 +1436,25 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5775075987841946</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L24">
         <v>190</v>
       </c>
       <c r="M24">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="10:17">
